--- a/REGULAR/JAVIER, OLIVER.xlsx
+++ b/REGULAR/JAVIER, OLIVER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A21571-C14C-4F48-9592-DF2196E560A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E171D6-C285-4E00-A263-6D2B5AA7B873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="131">
   <si>
     <t>PERIOD</t>
   </si>
@@ -432,6 +424,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1121,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K749" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K750" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1455,12 +1450,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K749"/>
+  <dimension ref="A2:K750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A279" activePane="bottomLeft"/>
-      <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="H290" sqref="H290"/>
+      <pane ySplit="3576" topLeftCell="A226" activePane="bottomLeft"/>
+      <selection activeCell="O27" sqref="O27"/>
+      <selection pane="bottomLeft" activeCell="E234" sqref="E234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,7 +1614,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>135.042</v>
+        <v>136.292</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1629,7 +1624,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>184.042</v>
+        <v>190.292</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7530,15 +7525,19 @@
       <c r="K290" s="20"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A291" s="40"/>
+      <c r="A291" s="40">
+        <v>44866</v>
+      </c>
       <c r="B291" s="20"/>
-      <c r="C291" s="13"/>
+      <c r="C291" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D291" s="39"/>
       <c r="E291" s="9"/>
       <c r="F291" s="20"/>
-      <c r="G291" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G291" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H291" s="39"/>
       <c r="I291" s="9"/>
@@ -7546,15 +7545,23 @@
       <c r="K291" s="20"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A292" s="40"/>
-      <c r="B292" s="20"/>
-      <c r="C292" s="13"/>
-      <c r="D292" s="39"/>
+      <c r="A292" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B292" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C292" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D292" s="39">
+        <v>5</v>
+      </c>
       <c r="E292" s="9"/>
       <c r="F292" s="20"/>
-      <c r="G292" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G292" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H292" s="39"/>
       <c r="I292" s="9"/>
@@ -7562,7 +7569,9 @@
       <c r="K292" s="20"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A293" s="40"/>
+      <c r="A293" s="48" t="s">
+        <v>130</v>
+      </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
       <c r="D293" s="39"/>
@@ -7578,15 +7587,19 @@
       <c r="K293" s="20"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A294" s="40"/>
+      <c r="A294" s="40">
+        <v>44927</v>
+      </c>
       <c r="B294" s="20"/>
-      <c r="C294" s="13"/>
+      <c r="C294" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D294" s="39"/>
       <c r="E294" s="9"/>
       <c r="F294" s="20"/>
-      <c r="G294" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G294" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H294" s="39"/>
       <c r="I294" s="9"/>
@@ -7594,15 +7607,19 @@
       <c r="K294" s="20"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A295" s="40"/>
+      <c r="A295" s="40">
+        <v>44958</v>
+      </c>
       <c r="B295" s="20"/>
-      <c r="C295" s="13"/>
+      <c r="C295" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D295" s="39"/>
       <c r="E295" s="9"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G295" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H295" s="39"/>
       <c r="I295" s="9"/>
@@ -7610,23 +7627,33 @@
       <c r="K295" s="20"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A296" s="40"/>
-      <c r="B296" s="20"/>
-      <c r="C296" s="13"/>
+      <c r="A296" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B296" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C296" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D296" s="39"/>
       <c r="E296" s="9"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G296" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H296" s="39"/>
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
-      <c r="K296" s="20"/>
+      <c r="K296" s="49">
+        <v>45005</v>
+      </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A297" s="40"/>
+      <c r="A297" s="40">
+        <v>45017</v>
+      </c>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
       <c r="D297" s="39"/>
@@ -7642,7 +7669,9 @@
       <c r="K297" s="20"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A298" s="40"/>
+      <c r="A298" s="40">
+        <v>45047</v>
+      </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
       <c r="D298" s="39"/>
@@ -7658,7 +7687,9 @@
       <c r="K298" s="20"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A299" s="40"/>
+      <c r="A299" s="40">
+        <v>45078</v>
+      </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
       <c r="D299" s="39"/>
@@ -7674,7 +7705,9 @@
       <c r="K299" s="20"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A300" s="40"/>
+      <c r="A300" s="40">
+        <v>45108</v>
+      </c>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
       <c r="D300" s="39"/>
@@ -7690,7 +7723,9 @@
       <c r="K300" s="20"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A301" s="40"/>
+      <c r="A301" s="40">
+        <v>45139</v>
+      </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
       <c r="D301" s="39"/>
@@ -7706,7 +7741,9 @@
       <c r="K301" s="20"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A302" s="40"/>
+      <c r="A302" s="40">
+        <v>45170</v>
+      </c>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
       <c r="D302" s="39"/>
@@ -7722,7 +7759,9 @@
       <c r="K302" s="20"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A303" s="40"/>
+      <c r="A303" s="40">
+        <v>45200</v>
+      </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
       <c r="D303" s="39"/>
@@ -7738,7 +7777,9 @@
       <c r="K303" s="20"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A304" s="40"/>
+      <c r="A304" s="40">
+        <v>45231</v>
+      </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
       <c r="D304" s="39"/>
@@ -7754,7 +7795,9 @@
       <c r="K304" s="20"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A305" s="40"/>
+      <c r="A305" s="40">
+        <v>45261</v>
+      </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
       <c r="D305" s="39"/>
@@ -7770,7 +7813,9 @@
       <c r="K305" s="20"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A306" s="40"/>
+      <c r="A306" s="40">
+        <v>45292</v>
+      </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
       <c r="D306" s="39"/>
@@ -7786,7 +7831,9 @@
       <c r="K306" s="20"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A307" s="40"/>
+      <c r="A307" s="40">
+        <v>45323</v>
+      </c>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
       <c r="D307" s="39"/>
@@ -7802,7 +7849,9 @@
       <c r="K307" s="20"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A308" s="40"/>
+      <c r="A308" s="40">
+        <v>45352</v>
+      </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
       <c r="D308" s="39"/>
@@ -7818,7 +7867,9 @@
       <c r="K308" s="20"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A309" s="40"/>
+      <c r="A309" s="40">
+        <v>45383</v>
+      </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
       <c r="D309" s="39"/>
@@ -7834,7 +7885,9 @@
       <c r="K309" s="20"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A310" s="40"/>
+      <c r="A310" s="40">
+        <v>45413</v>
+      </c>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
       <c r="D310" s="39"/>
@@ -7850,7 +7903,9 @@
       <c r="K310" s="20"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A311" s="40"/>
+      <c r="A311" s="40">
+        <v>45444</v>
+      </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
       <c r="D311" s="39"/>
@@ -7866,7 +7921,9 @@
       <c r="K311" s="20"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A312" s="40"/>
+      <c r="A312" s="40">
+        <v>45474</v>
+      </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
       <c r="D312" s="39"/>
@@ -7882,7 +7939,9 @@
       <c r="K312" s="20"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A313" s="40"/>
+      <c r="A313" s="40">
+        <v>45505</v>
+      </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
       <c r="D313" s="39"/>
@@ -7898,7 +7957,9 @@
       <c r="K313" s="20"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A314" s="40"/>
+      <c r="A314" s="40">
+        <v>45536</v>
+      </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
       <c r="D314" s="39"/>
@@ -7914,7 +7975,9 @@
       <c r="K314" s="20"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A315" s="40"/>
+      <c r="A315" s="40">
+        <v>45566</v>
+      </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
       <c r="D315" s="39"/>
@@ -7930,7 +7993,9 @@
       <c r="K315" s="20"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A316" s="40"/>
+      <c r="A316" s="40">
+        <v>45597</v>
+      </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
       <c r="D316" s="39"/>
@@ -7946,7 +8011,9 @@
       <c r="K316" s="20"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A317" s="40"/>
+      <c r="A317" s="40">
+        <v>45627</v>
+      </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
       <c r="D317" s="39"/>
@@ -7962,7 +8029,9 @@
       <c r="K317" s="20"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A318" s="40"/>
+      <c r="A318" s="40">
+        <v>45658</v>
+      </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
       <c r="D318" s="39"/>
@@ -7978,7 +8047,9 @@
       <c r="K318" s="20"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A319" s="40"/>
+      <c r="A319" s="40">
+        <v>45689</v>
+      </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
       <c r="D319" s="39"/>
@@ -7994,7 +8065,9 @@
       <c r="K319" s="20"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A320" s="40"/>
+      <c r="A320" s="40">
+        <v>45717</v>
+      </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
       <c r="D320" s="39"/>
@@ -8010,7 +8083,9 @@
       <c r="K320" s="20"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A321" s="40"/>
+      <c r="A321" s="40">
+        <v>45748</v>
+      </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
       <c r="D321" s="39"/>
@@ -8026,7 +8101,9 @@
       <c r="K321" s="20"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A322" s="40"/>
+      <c r="A322" s="40">
+        <v>45778</v>
+      </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
       <c r="D322" s="39"/>
@@ -8042,7 +8119,9 @@
       <c r="K322" s="20"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A323" s="40"/>
+      <c r="A323" s="40">
+        <v>45809</v>
+      </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
       <c r="D323" s="39"/>
@@ -8058,7 +8137,9 @@
       <c r="K323" s="20"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A324" s="40"/>
+      <c r="A324" s="40">
+        <v>45839</v>
+      </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
       <c r="D324" s="39"/>
@@ -8074,7 +8155,9 @@
       <c r="K324" s="20"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A325" s="40"/>
+      <c r="A325" s="40">
+        <v>45870</v>
+      </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
       <c r="D325" s="39"/>
@@ -8090,7 +8173,9 @@
       <c r="K325" s="20"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A326" s="40"/>
+      <c r="A326" s="40">
+        <v>45901</v>
+      </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
       <c r="D326" s="39"/>
@@ -8106,7 +8191,9 @@
       <c r="K326" s="20"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A327" s="40"/>
+      <c r="A327" s="40">
+        <v>45931</v>
+      </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
       <c r="D327" s="39"/>
@@ -8122,7 +8209,9 @@
       <c r="K327" s="20"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A328" s="40"/>
+      <c r="A328" s="40">
+        <v>45962</v>
+      </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
       <c r="D328" s="39"/>
@@ -8138,7 +8227,9 @@
       <c r="K328" s="20"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A329" s="40"/>
+      <c r="A329" s="40">
+        <v>45992</v>
+      </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
       <c r="D329" s="39"/>
@@ -8154,7 +8245,9 @@
       <c r="K329" s="20"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="40"/>
+      <c r="A330" s="40">
+        <v>46023</v>
+      </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
       <c r="D330" s="39"/>
@@ -8170,7 +8263,9 @@
       <c r="K330" s="20"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A331" s="40"/>
+      <c r="A331" s="40">
+        <v>46054</v>
+      </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
       <c r="D331" s="39"/>
@@ -8186,7 +8281,9 @@
       <c r="K331" s="20"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332" s="40"/>
+      <c r="A332" s="40">
+        <v>46082</v>
+      </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
       <c r="D332" s="39"/>
@@ -8202,7 +8299,9 @@
       <c r="K332" s="20"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A333" s="40"/>
+      <c r="A333" s="40">
+        <v>46113</v>
+      </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
       <c r="D333" s="39"/>
@@ -8218,7 +8317,9 @@
       <c r="K333" s="20"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A334" s="40"/>
+      <c r="A334" s="40">
+        <v>46143</v>
+      </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
       <c r="D334" s="39"/>
@@ -8234,7 +8335,9 @@
       <c r="K334" s="20"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A335" s="40"/>
+      <c r="A335" s="40">
+        <v>46174</v>
+      </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
       <c r="D335" s="39"/>
@@ -8250,7 +8353,9 @@
       <c r="K335" s="20"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336" s="40"/>
+      <c r="A336" s="40">
+        <v>46204</v>
+      </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
       <c r="D336" s="39"/>
@@ -8266,7 +8371,9 @@
       <c r="K336" s="20"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="40"/>
+      <c r="A337" s="40">
+        <v>46235</v>
+      </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
       <c r="D337" s="39"/>
@@ -8282,7 +8389,9 @@
       <c r="K337" s="20"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A338" s="40"/>
+      <c r="A338" s="40">
+        <v>46266</v>
+      </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
       <c r="D338" s="39"/>
@@ -8298,7 +8407,9 @@
       <c r="K338" s="20"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A339" s="40"/>
+      <c r="A339" s="40">
+        <v>46296</v>
+      </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
       <c r="D339" s="39"/>
@@ -8314,7 +8425,9 @@
       <c r="K339" s="20"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A340" s="40"/>
+      <c r="A340" s="40">
+        <v>46327</v>
+      </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
       <c r="D340" s="39"/>
@@ -8330,7 +8443,9 @@
       <c r="K340" s="20"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A341" s="40"/>
+      <c r="A341" s="40">
+        <v>46357</v>
+      </c>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
       <c r="D341" s="39"/>
@@ -8346,7 +8461,9 @@
       <c r="K341" s="20"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A342" s="40"/>
+      <c r="A342" s="40">
+        <v>46388</v>
+      </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
       <c r="D342" s="39"/>
@@ -8362,7 +8479,9 @@
       <c r="K342" s="20"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A343" s="40"/>
+      <c r="A343" s="40">
+        <v>46419</v>
+      </c>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
       <c r="D343" s="39"/>
@@ -8378,7 +8497,9 @@
       <c r="K343" s="20"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344" s="40"/>
+      <c r="A344" s="40">
+        <v>46447</v>
+      </c>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
       <c r="D344" s="39"/>
@@ -8394,7 +8515,9 @@
       <c r="K344" s="20"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A345" s="40"/>
+      <c r="A345" s="40">
+        <v>46478</v>
+      </c>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
       <c r="D345" s="39"/>
@@ -8410,7 +8533,9 @@
       <c r="K345" s="20"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A346" s="40"/>
+      <c r="A346" s="40">
+        <v>46508</v>
+      </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
       <c r="D346" s="39"/>
@@ -8426,7 +8551,9 @@
       <c r="K346" s="20"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A347" s="40"/>
+      <c r="A347" s="40">
+        <v>46539</v>
+      </c>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
       <c r="D347" s="39"/>
@@ -8442,7 +8569,9 @@
       <c r="K347" s="20"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A348" s="40"/>
+      <c r="A348" s="40">
+        <v>46569</v>
+      </c>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
       <c r="D348" s="39"/>
@@ -8458,7 +8587,9 @@
       <c r="K348" s="20"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A349" s="40"/>
+      <c r="A349" s="40">
+        <v>46600</v>
+      </c>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
       <c r="D349" s="39"/>
@@ -8474,7 +8605,9 @@
       <c r="K349" s="20"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A350" s="40"/>
+      <c r="A350" s="40">
+        <v>46631</v>
+      </c>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
       <c r="D350" s="39"/>
@@ -8490,7 +8623,9 @@
       <c r="K350" s="20"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A351" s="40"/>
+      <c r="A351" s="40">
+        <v>46661</v>
+      </c>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
       <c r="D351" s="39"/>
@@ -8506,7 +8641,9 @@
       <c r="K351" s="20"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A352" s="40"/>
+      <c r="A352" s="40">
+        <v>46692</v>
+      </c>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
       <c r="D352" s="39"/>
@@ -8522,7 +8659,9 @@
       <c r="K352" s="20"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A353" s="40"/>
+      <c r="A353" s="40">
+        <v>46722</v>
+      </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
       <c r="D353" s="39"/>
@@ -8538,7 +8677,9 @@
       <c r="K353" s="20"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A354" s="40"/>
+      <c r="A354" s="40">
+        <v>46753</v>
+      </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
       <c r="D354" s="39"/>
@@ -8554,7 +8695,9 @@
       <c r="K354" s="20"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A355" s="40"/>
+      <c r="A355" s="40">
+        <v>46784</v>
+      </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
       <c r="D355" s="39"/>
@@ -8570,7 +8713,9 @@
       <c r="K355" s="20"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A356" s="40"/>
+      <c r="A356" s="40">
+        <v>46813</v>
+      </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
       <c r="D356" s="39"/>
@@ -8586,7 +8731,9 @@
       <c r="K356" s="20"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A357" s="40"/>
+      <c r="A357" s="40">
+        <v>46844</v>
+      </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
       <c r="D357" s="39"/>
@@ -8602,7 +8749,9 @@
       <c r="K357" s="20"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A358" s="40"/>
+      <c r="A358" s="40">
+        <v>46874</v>
+      </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
       <c r="D358" s="39"/>
@@ -8618,7 +8767,9 @@
       <c r="K358" s="20"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A359" s="40"/>
+      <c r="A359" s="40">
+        <v>46905</v>
+      </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
       <c r="D359" s="39"/>
@@ -8634,7 +8785,9 @@
       <c r="K359" s="20"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="40"/>
+      <c r="A360" s="40">
+        <v>46935</v>
+      </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
@@ -8650,7 +8803,9 @@
       <c r="K360" s="20"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A361" s="40"/>
+      <c r="A361" s="40">
+        <v>46966</v>
+      </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
       <c r="D361" s="39"/>
@@ -8666,7 +8821,9 @@
       <c r="K361" s="20"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="40"/>
+      <c r="A362" s="40">
+        <v>46997</v>
+      </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
       <c r="D362" s="39"/>
@@ -8682,7 +8839,9 @@
       <c r="K362" s="20"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="40"/>
+      <c r="A363" s="40">
+        <v>47027</v>
+      </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
@@ -8698,7 +8857,9 @@
       <c r="K363" s="20"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A364" s="40"/>
+      <c r="A364" s="40">
+        <v>47058</v>
+      </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
       <c r="D364" s="39"/>
@@ -8714,7 +8875,9 @@
       <c r="K364" s="20"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365" s="40"/>
+      <c r="A365" s="40">
+        <v>47088</v>
+      </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
       <c r="D365" s="39"/>
@@ -8730,7 +8893,9 @@
       <c r="K365" s="20"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A366" s="40"/>
+      <c r="A366" s="40">
+        <v>47119</v>
+      </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
       <c r="D366" s="39"/>
@@ -8746,7 +8911,9 @@
       <c r="K366" s="20"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A367" s="40"/>
+      <c r="A367" s="40">
+        <v>47150</v>
+      </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
       <c r="D367" s="39"/>
@@ -8762,7 +8929,9 @@
       <c r="K367" s="20"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A368" s="40"/>
+      <c r="A368" s="40">
+        <v>47178</v>
+      </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
       <c r="D368" s="39"/>
@@ -8778,7 +8947,9 @@
       <c r="K368" s="20"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A369" s="40"/>
+      <c r="A369" s="40">
+        <v>47209</v>
+      </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
       <c r="D369" s="39"/>
@@ -8794,7 +8965,9 @@
       <c r="K369" s="20"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A370" s="40"/>
+      <c r="A370" s="40">
+        <v>47239</v>
+      </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
       <c r="D370" s="39"/>
@@ -8810,7 +8983,9 @@
       <c r="K370" s="20"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A371" s="40"/>
+      <c r="A371" s="40">
+        <v>47270</v>
+      </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
       <c r="D371" s="39"/>
@@ -8826,7 +9001,9 @@
       <c r="K371" s="20"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A372" s="40"/>
+      <c r="A372" s="40">
+        <v>47300</v>
+      </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
       <c r="D372" s="39"/>
@@ -8842,7 +9019,9 @@
       <c r="K372" s="20"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A373" s="40"/>
+      <c r="A373" s="40">
+        <v>47331</v>
+      </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
       <c r="D373" s="39"/>
@@ -8858,7 +9037,9 @@
       <c r="K373" s="20"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A374" s="40"/>
+      <c r="A374" s="40">
+        <v>47362</v>
+      </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
       <c r="D374" s="39"/>
@@ -8874,7 +9055,9 @@
       <c r="K374" s="20"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A375" s="40"/>
+      <c r="A375" s="40">
+        <v>47392</v>
+      </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
       <c r="D375" s="39"/>
@@ -8890,7 +9073,9 @@
       <c r="K375" s="20"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A376" s="40"/>
+      <c r="A376" s="40">
+        <v>47423</v>
+      </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
       <c r="D376" s="39"/>
@@ -8906,7 +9091,9 @@
       <c r="K376" s="20"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A377" s="40"/>
+      <c r="A377" s="40">
+        <v>47453</v>
+      </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
       <c r="D377" s="39"/>
@@ -8922,7 +9109,9 @@
       <c r="K377" s="20"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A378" s="40"/>
+      <c r="A378" s="40">
+        <v>47484</v>
+      </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
       <c r="D378" s="39"/>
@@ -14858,20 +15047,36 @@
       <c r="K748" s="20"/>
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A749" s="41"/>
-      <c r="B749" s="15"/>
-      <c r="C749" s="42"/>
-      <c r="D749" s="43"/>
-      <c r="E749" s="50"/>
-      <c r="F749" s="15"/>
+      <c r="A749" s="40"/>
+      <c r="B749" s="20"/>
+      <c r="C749" s="13"/>
+      <c r="D749" s="39"/>
+      <c r="E749" s="9"/>
+      <c r="F749" s="20"/>
       <c r="G749" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H749" s="43"/>
-      <c r="I749" s="50"/>
-      <c r="J749" s="12"/>
-      <c r="K749" s="15"/>
+      <c r="H749" s="39"/>
+      <c r="I749" s="9"/>
+      <c r="J749" s="11"/>
+      <c r="K749" s="20"/>
+    </row>
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A750" s="41"/>
+      <c r="B750" s="15"/>
+      <c r="C750" s="42"/>
+      <c r="D750" s="43"/>
+      <c r="E750" s="50"/>
+      <c r="F750" s="15"/>
+      <c r="G750" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H750" s="43"/>
+      <c r="I750" s="50"/>
+      <c r="J750" s="12"/>
+      <c r="K750" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/JAVIER, OLIVER.xlsx
+++ b/REGULAR/JAVIER, OLIVER.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E171D6-C285-4E00-A263-6D2B5AA7B873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="131">
   <si>
     <t>PERIOD</t>
   </si>
@@ -432,7 +431,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1121,25 +1120,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K750" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K750" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1446,34 +1445,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K750"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A226" activePane="bottomLeft"/>
-      <selection activeCell="O27" sqref="O27"/>
-      <selection pane="bottomLeft" activeCell="E234" sqref="E234"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A286"/>
+      <selection activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="K300" sqref="K300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1494,7 +1493,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1512,7 +1511,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1532,7 +1531,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1540,7 +1539,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1553,7 +1552,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1570,7 +1569,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1614,7 +1613,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>136.292</v>
+        <v>138.792</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1624,12 +1623,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.292</v>
+        <v>191.792</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1651,7 +1650,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>37900</v>
       </c>
@@ -1669,7 +1668,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>37931</v>
       </c>
@@ -1689,7 +1688,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>37961</v>
       </c>
@@ -1709,7 +1708,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>45</v>
       </c>
@@ -1727,7 +1726,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>37987</v>
       </c>
@@ -1747,7 +1746,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>38018</v>
       </c>
@@ -1767,7 +1766,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>38047</v>
       </c>
@@ -1787,7 +1786,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>38078</v>
       </c>
@@ -1807,7 +1806,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>38108</v>
       </c>
@@ -1827,7 +1826,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>38139</v>
       </c>
@@ -1847,7 +1846,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>38169</v>
       </c>
@@ -1867,7 +1866,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>38200</v>
       </c>
@@ -1887,7 +1886,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>38231</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>38247</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>38261</v>
       </c>
@@ -1931,7 +1930,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>38292</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>38322</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>38350</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="20" t="s">
         <v>49</v>
@@ -2003,7 +2002,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>51</v>
       </c>
@@ -2021,7 +2020,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>38353</v>
       </c>
@@ -2041,7 +2040,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>38384</v>
       </c>
@@ -2061,7 +2060,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>38412</v>
       </c>
@@ -2081,7 +2080,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>38443</v>
       </c>
@@ -2101,7 +2100,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>38473</v>
       </c>
@@ -2121,7 +2120,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>38504</v>
       </c>
@@ -2141,7 +2140,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>38534</v>
       </c>
@@ -2161,7 +2160,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>38565</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>38579</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>38596</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>38614</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>38626</v>
       </c>
@@ -2231,7 +2230,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>38657</v>
       </c>
@@ -2251,7 +2250,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>38687</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>38715</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>53</v>
@@ -2297,7 +2296,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>54</v>
       </c>
@@ -2315,7 +2314,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>38718</v>
       </c>
@@ -2335,7 +2334,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>38749</v>
       </c>
@@ -2355,7 +2354,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>38777</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>56</v>
@@ -2398,7 +2397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>38808</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>38838</v>
       </c>
@@ -2442,7 +2441,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>38869</v>
       </c>
@@ -2462,7 +2461,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>38899</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>38923</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>38930</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>38933</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>46</v>
@@ -2529,7 +2528,7 @@
         <v>38937</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>38961</v>
       </c>
@@ -2549,7 +2548,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>38991</v>
       </c>
@@ -2569,7 +2568,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>39022</v>
       </c>
@@ -2589,7 +2588,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>39052</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>39080</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>49</v>
@@ -2635,7 +2634,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>60</v>
       </c>
@@ -2653,7 +2652,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>39083</v>
       </c>
@@ -2673,7 +2672,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>39114</v>
       </c>
@@ -2693,7 +2692,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>39142</v>
       </c>
@@ -2717,7 +2716,7 @@
         <v>39167</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>55</v>
@@ -2736,7 +2735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>39173</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>39203</v>
       </c>
@@ -2782,7 +2781,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>39234</v>
       </c>
@@ -2802,7 +2801,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>39264</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>39279</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>39295</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>39315</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>59</v>
@@ -2871,7 +2870,7 @@
         <v>39309</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>39326</v>
       </c>
@@ -2891,7 +2890,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>39356</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>39365</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>47</v>
@@ -2936,7 +2935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>39387</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>67</v>
@@ -2981,7 +2980,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>39417</v>
       </c>
@@ -3001,7 +3000,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>68</v>
       </c>
@@ -3019,7 +3018,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>39448</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>70</v>
@@ -3062,7 +3061,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>39479</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>59</v>
@@ -3107,7 +3106,7 @@
         <v>39506</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>39508</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>39534</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>39539</v>
       </c>
@@ -3157,7 +3156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>47</v>
@@ -3176,7 +3175,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>39569</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>59</v>
@@ -3221,7 +3220,7 @@
         <v>39589</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>47</v>
@@ -3240,7 +3239,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>39600</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>39625</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>39630</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>59</v>
@@ -3311,7 +3310,7 @@
         <v>39650</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>39661</v>
       </c>
@@ -3337,7 +3336,7 @@
         <v>39666</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>55</v>
@@ -3356,7 +3355,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>39692</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>39703</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>59</v>
@@ -3401,7 +3400,7 @@
         <v>39713</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>39722</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>39730</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>59</v>
@@ -3446,7 +3445,7 @@
         <v>39749</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>39753</v>
       </c>
@@ -3472,7 +3471,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>79</v>
@@ -3491,7 +3490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>39783</v>
       </c>
@@ -3511,7 +3510,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
         <v>83</v>
       </c>
@@ -3529,7 +3528,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>39814</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>39845</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>39873</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>39897</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>59</v>
@@ -3626,7 +3625,7 @@
         <v>39902</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>39904</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>52</v>
@@ -3669,7 +3668,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>39934</v>
       </c>
@@ -3695,7 +3694,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>47</v>
@@ -3714,7 +3713,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>39965</v>
       </c>
@@ -3734,7 +3733,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>39995</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>70</v>
@@ -3775,7 +3774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>40026</v>
       </c>
@@ -3801,7 +3800,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>55</v>
@@ -3820,7 +3819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>40057</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>40087</v>
       </c>
@@ -3866,7 +3865,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>40118</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>40148</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>53</v>
@@ -3940,7 +3939,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>47</v>
@@ -3959,7 +3958,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>96</v>
       </c>
@@ -3977,7 +3976,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>40179</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>40198</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>47</v>
@@ -4022,7 +4021,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>40210</v>
       </c>
@@ -4048,7 +4047,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>46</v>
@@ -4065,7 +4064,7 @@
         <v>40231</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>40238</v>
       </c>
@@ -4091,7 +4090,7 @@
         <v>40228</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>40269</v>
       </c>
@@ -4111,7 +4110,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>40299</v>
       </c>
@@ -4137,7 +4136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>40330</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>59</v>
@@ -4182,7 +4181,7 @@
         <v>40371</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>46</v>
@@ -4199,7 +4198,7 @@
         <v>40392</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>40360</v>
       </c>
@@ -4219,7 +4218,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>40391</v>
       </c>
@@ -4239,7 +4238,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>40422</v>
       </c>
@@ -4263,7 +4262,7 @@
         <v>40464</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>40452</v>
       </c>
@@ -4283,7 +4282,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>40483</v>
       </c>
@@ -4303,7 +4302,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>40513</v>
       </c>
@@ -4327,7 +4326,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>102</v>
       </c>
@@ -4345,7 +4344,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>40544</v>
       </c>
@@ -4365,7 +4364,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>40575</v>
       </c>
@@ -4385,7 +4384,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>40603</v>
       </c>
@@ -4405,7 +4404,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>40634</v>
       </c>
@@ -4425,7 +4424,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>40664</v>
       </c>
@@ -4445,7 +4444,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>40695</v>
       </c>
@@ -4465,7 +4464,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>40725</v>
       </c>
@@ -4485,7 +4484,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>40756</v>
       </c>
@@ -4505,7 +4504,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>40787</v>
       </c>
@@ -4525,7 +4524,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>40817</v>
       </c>
@@ -4545,7 +4544,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>40848</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>40878</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
         <v>106</v>
       </c>
@@ -4615,7 +4614,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>40909</v>
       </c>
@@ -4635,7 +4634,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>40940</v>
       </c>
@@ -4655,7 +4654,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>40969</v>
       </c>
@@ -4675,7 +4674,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>41000</v>
       </c>
@@ -4695,7 +4694,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>41030</v>
       </c>
@@ -4715,7 +4714,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>41061</v>
       </c>
@@ -4735,7 +4734,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>41091</v>
       </c>
@@ -4755,7 +4754,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>41122</v>
       </c>
@@ -4775,7 +4774,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>41153</v>
       </c>
@@ -4795,7 +4794,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>41183</v>
       </c>
@@ -4815,7 +4814,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>41214</v>
       </c>
@@ -4835,7 +4834,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>41244</v>
       </c>
@@ -4859,7 +4858,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
         <v>107</v>
       </c>
@@ -4877,7 +4876,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>41275</v>
       </c>
@@ -4897,7 +4896,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>41306</v>
       </c>
@@ -4917,7 +4916,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>41334</v>
       </c>
@@ -4937,7 +4936,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>41365</v>
       </c>
@@ -4957,7 +4956,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>41395</v>
       </c>
@@ -4977,7 +4976,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>41426</v>
       </c>
@@ -4997,7 +4996,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>41456</v>
       </c>
@@ -5017,7 +5016,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>41487</v>
       </c>
@@ -5037,7 +5036,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>41518</v>
       </c>
@@ -5057,7 +5056,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>41548</v>
       </c>
@@ -5077,7 +5076,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>41579</v>
       </c>
@@ -5097,7 +5096,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>41609</v>
       </c>
@@ -5121,7 +5120,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="48" t="s">
         <v>108</v>
       </c>
@@ -5139,7 +5138,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>41640</v>
       </c>
@@ -5159,7 +5158,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>41671</v>
       </c>
@@ -5179,7 +5178,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>41699</v>
       </c>
@@ -5199,7 +5198,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41730</v>
       </c>
@@ -5219,7 +5218,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>41760</v>
       </c>
@@ -5239,7 +5238,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>41791</v>
       </c>
@@ -5259,7 +5258,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>41821</v>
       </c>
@@ -5279,7 +5278,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>41852</v>
       </c>
@@ -5299,7 +5298,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>41883</v>
       </c>
@@ -5319,7 +5318,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>41913</v>
       </c>
@@ -5339,7 +5338,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>41944</v>
       </c>
@@ -5359,7 +5358,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>41974</v>
       </c>
@@ -5383,7 +5382,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="48" t="s">
         <v>109</v>
       </c>
@@ -5401,7 +5400,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>42005</v>
       </c>
@@ -5421,7 +5420,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>42036</v>
       </c>
@@ -5441,7 +5440,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>42064</v>
       </c>
@@ -5461,7 +5460,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>42095</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>42118</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>42125</v>
       </c>
@@ -5505,7 +5504,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>42156</v>
       </c>
@@ -5525,7 +5524,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>42186</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>42217</v>
       </c>
@@ -5577,7 +5576,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>42248</v>
       </c>
@@ -5597,7 +5596,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>42278</v>
       </c>
@@ -5617,7 +5616,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>42309</v>
       </c>
@@ -5637,7 +5636,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>42339</v>
       </c>
@@ -5663,7 +5662,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>70</v>
@@ -5683,7 +5682,7 @@
         <v>42369</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="48" t="s">
         <v>114</v>
       </c>
@@ -5701,7 +5700,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>42370</v>
       </c>
@@ -5721,7 +5720,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>42401</v>
       </c>
@@ -5741,7 +5740,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>42430</v>
       </c>
@@ -5761,7 +5760,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>42461</v>
       </c>
@@ -5781,7 +5780,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>42491</v>
       </c>
@@ -5801,7 +5800,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>42522</v>
       </c>
@@ -5821,7 +5820,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>42552</v>
       </c>
@@ -5841,7 +5840,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>42583</v>
       </c>
@@ -5861,7 +5860,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>42614</v>
       </c>
@@ -5881,7 +5880,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>42644</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>42675</v>
       </c>
@@ -5925,7 +5924,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>42705</v>
       </c>
@@ -5949,7 +5948,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="48" t="s">
         <v>115</v>
       </c>
@@ -5967,7 +5966,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>42736</v>
       </c>
@@ -5987,7 +5986,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42767</v>
       </c>
@@ -6007,7 +6006,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>42795</v>
       </c>
@@ -6027,7 +6026,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>42826</v>
       </c>
@@ -6047,7 +6046,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>42856</v>
       </c>
@@ -6067,7 +6066,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>42887</v>
       </c>
@@ -6087,7 +6086,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>42917</v>
       </c>
@@ -6107,7 +6106,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>42948</v>
       </c>
@@ -6127,7 +6126,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>42979</v>
       </c>
@@ -6147,7 +6146,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>43009</v>
       </c>
@@ -6167,7 +6166,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>43040</v>
       </c>
@@ -6187,7 +6186,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>43070</v>
       </c>
@@ -6211,7 +6210,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="48" t="s">
         <v>117</v>
       </c>
@@ -6229,7 +6228,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>43101</v>
       </c>
@@ -6249,7 +6248,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>43132</v>
       </c>
@@ -6269,7 +6268,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>43160</v>
       </c>
@@ -6289,7 +6288,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>43191</v>
       </c>
@@ -6309,7 +6308,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>43221</v>
       </c>
@@ -6329,7 +6328,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>43252</v>
       </c>
@@ -6349,7 +6348,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>43282</v>
       </c>
@@ -6369,7 +6368,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>43313</v>
       </c>
@@ -6389,7 +6388,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>43344</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>43374</v>
       </c>
@@ -6437,7 +6436,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>43405</v>
       </c>
@@ -6457,7 +6456,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>43435</v>
       </c>
@@ -6481,7 +6480,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="48" t="s">
         <v>119</v>
       </c>
@@ -6499,7 +6498,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>43466</v>
       </c>
@@ -6519,7 +6518,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>43497</v>
       </c>
@@ -6539,7 +6538,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>43525</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>43556</v>
       </c>
@@ -6585,7 +6584,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>43586</v>
       </c>
@@ -6605,7 +6604,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>43617</v>
       </c>
@@ -6625,7 +6624,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>43647</v>
       </c>
@@ -6645,7 +6644,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>43678</v>
       </c>
@@ -6665,7 +6664,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>43709</v>
       </c>
@@ -6685,7 +6684,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>43739</v>
       </c>
@@ -6711,7 +6710,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>120</v>
@@ -6730,7 +6729,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>43770</v>
       </c>
@@ -6750,7 +6749,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>43800</v>
       </c>
@@ -6776,7 +6775,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="48" t="s">
         <v>124</v>
       </c>
@@ -6794,7 +6793,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>43831</v>
       </c>
@@ -6814,7 +6813,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>43862</v>
       </c>
@@ -6834,7 +6833,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>43891</v>
       </c>
@@ -6854,7 +6853,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>43922</v>
       </c>
@@ -6874,7 +6873,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>43952</v>
       </c>
@@ -6894,7 +6893,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>43983</v>
       </c>
@@ -6914,7 +6913,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>44013</v>
       </c>
@@ -6934,7 +6933,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>44044</v>
       </c>
@@ -6954,7 +6953,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>44075</v>
       </c>
@@ -6974,7 +6973,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>44105</v>
       </c>
@@ -6994,7 +6993,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>44136</v>
       </c>
@@ -7014,7 +7013,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>44166</v>
       </c>
@@ -7038,7 +7037,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="48" t="s">
         <v>125</v>
       </c>
@@ -7056,7 +7055,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>44197</v>
       </c>
@@ -7076,7 +7075,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>44228</v>
       </c>
@@ -7096,7 +7095,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>44256</v>
       </c>
@@ -7116,7 +7115,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>44287</v>
       </c>
@@ -7136,7 +7135,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>44317</v>
       </c>
@@ -7156,7 +7155,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>44348</v>
       </c>
@@ -7176,7 +7175,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>44378</v>
       </c>
@@ -7196,7 +7195,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>44409</v>
       </c>
@@ -7216,7 +7215,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>44440</v>
       </c>
@@ -7236,7 +7235,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>44470</v>
       </c>
@@ -7256,7 +7255,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>44501</v>
       </c>
@@ -7276,7 +7275,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>44531</v>
       </c>
@@ -7300,7 +7299,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="48" t="s">
         <v>126</v>
       </c>
@@ -7318,7 +7317,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>44562</v>
       </c>
@@ -7338,7 +7337,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>44593</v>
       </c>
@@ -7358,7 +7357,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>44621</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>44652</v>
       </c>
@@ -7404,7 +7403,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>44682</v>
       </c>
@@ -7424,7 +7423,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>44713</v>
       </c>
@@ -7444,7 +7443,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>44743</v>
       </c>
@@ -7464,7 +7463,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>44774</v>
       </c>
@@ -7484,7 +7483,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>44805</v>
       </c>
@@ -7504,7 +7503,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>44835</v>
       </c>
@@ -7524,7 +7523,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>44866</v>
       </c>
@@ -7544,7 +7543,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>44896</v>
       </c>
@@ -7568,7 +7567,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="48" t="s">
         <v>130</v>
       </c>
@@ -7586,7 +7585,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>44927</v>
       </c>
@@ -7606,7 +7605,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>44958</v>
       </c>
@@ -7626,7 +7625,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>44986</v>
       </c>
@@ -7650,47 +7649,53 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>45017</v>
       </c>
       <c r="B297" s="20"/>
-      <c r="C297" s="13"/>
+      <c r="C297" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D297" s="39"/>
       <c r="E297" s="9"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G297" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H297" s="39"/>
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>45047</v>
       </c>
       <c r="B298" s="20"/>
-      <c r="C298" s="13"/>
+      <c r="C298" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D298" s="39"/>
       <c r="E298" s="9"/>
       <c r="F298" s="20"/>
-      <c r="G298" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G298" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H298" s="39"/>
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>45078</v>
       </c>
-      <c r="B299" s="20"/>
+      <c r="B299" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C299" s="13"/>
       <c r="D299" s="39"/>
       <c r="E299" s="9"/>
@@ -7699,12 +7704,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H299" s="39"/>
+      <c r="H299" s="39">
+        <v>1</v>
+      </c>
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
-      <c r="K299" s="20"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K299" s="49">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>45108</v>
       </c>
@@ -7722,7 +7731,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>45139</v>
       </c>
@@ -7740,7 +7749,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>45170</v>
       </c>
@@ -7758,7 +7767,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>45200</v>
       </c>
@@ -7776,7 +7785,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>45231</v>
       </c>
@@ -7794,7 +7803,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>45261</v>
       </c>
@@ -7812,7 +7821,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>45292</v>
       </c>
@@ -7830,7 +7839,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>45323</v>
       </c>
@@ -7848,7 +7857,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>45352</v>
       </c>
@@ -7866,7 +7875,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>45383</v>
       </c>
@@ -7884,7 +7893,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>45413</v>
       </c>
@@ -7902,7 +7911,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>45444</v>
       </c>
@@ -7920,7 +7929,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>45474</v>
       </c>
@@ -7938,7 +7947,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>45505</v>
       </c>
@@ -7956,7 +7965,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>45536</v>
       </c>
@@ -7974,7 +7983,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>45566</v>
       </c>
@@ -7992,7 +8001,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>45597</v>
       </c>
@@ -8010,7 +8019,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>45627</v>
       </c>
@@ -8028,7 +8037,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>45658</v>
       </c>
@@ -8046,7 +8055,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>45689</v>
       </c>
@@ -8064,7 +8073,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>45717</v>
       </c>
@@ -8082,7 +8091,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>45748</v>
       </c>
@@ -8100,7 +8109,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>45778</v>
       </c>
@@ -8118,7 +8127,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>45809</v>
       </c>
@@ -8136,7 +8145,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>45839</v>
       </c>
@@ -8154,7 +8163,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>45870</v>
       </c>
@@ -8172,7 +8181,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>45901</v>
       </c>
@@ -8190,7 +8199,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>45931</v>
       </c>
@@ -8208,7 +8217,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>45962</v>
       </c>
@@ -8226,7 +8235,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>45992</v>
       </c>
@@ -8244,7 +8253,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>46023</v>
       </c>
@@ -8262,7 +8271,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>46054</v>
       </c>
@@ -8280,7 +8289,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>46082</v>
       </c>
@@ -8298,7 +8307,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>46113</v>
       </c>
@@ -8316,7 +8325,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>46143</v>
       </c>
@@ -8334,7 +8343,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>46174</v>
       </c>
@@ -8352,7 +8361,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>46204</v>
       </c>
@@ -8370,7 +8379,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>46235</v>
       </c>
@@ -8388,7 +8397,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>46266</v>
       </c>
@@ -8406,7 +8415,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>46296</v>
       </c>
@@ -8424,7 +8433,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>46327</v>
       </c>
@@ -8442,7 +8451,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>46357</v>
       </c>
@@ -8460,7 +8469,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>46388</v>
       </c>
@@ -8478,7 +8487,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>46419</v>
       </c>
@@ -8496,7 +8505,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>46447</v>
       </c>
@@ -8514,7 +8523,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>46478</v>
       </c>
@@ -8532,7 +8541,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>46508</v>
       </c>
@@ -8550,7 +8559,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>46539</v>
       </c>
@@ -8568,7 +8577,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>46569</v>
       </c>
@@ -8586,7 +8595,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>46600</v>
       </c>
@@ -8604,7 +8613,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>46631</v>
       </c>
@@ -8622,7 +8631,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>46661</v>
       </c>
@@ -8640,7 +8649,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>46692</v>
       </c>
@@ -8658,7 +8667,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>46722</v>
       </c>
@@ -8676,7 +8685,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>46753</v>
       </c>
@@ -8694,7 +8703,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>46784</v>
       </c>
@@ -8712,7 +8721,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>46813</v>
       </c>
@@ -8730,7 +8739,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>46844</v>
       </c>
@@ -8748,7 +8757,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>46874</v>
       </c>
@@ -8766,7 +8775,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>46905</v>
       </c>
@@ -8784,7 +8793,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>46935</v>
       </c>
@@ -8802,7 +8811,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>46966</v>
       </c>
@@ -8820,7 +8829,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>46997</v>
       </c>
@@ -8838,7 +8847,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>47027</v>
       </c>
@@ -8856,7 +8865,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>47058</v>
       </c>
@@ -8874,7 +8883,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>47088</v>
       </c>
@@ -8892,7 +8901,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>47119</v>
       </c>
@@ -8910,7 +8919,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>47150</v>
       </c>
@@ -8928,7 +8937,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>47178</v>
       </c>
@@ -8946,7 +8955,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>47209</v>
       </c>
@@ -8964,7 +8973,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>47239</v>
       </c>
@@ -8982,7 +8991,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>47270</v>
       </c>
@@ -9000,7 +9009,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>47300</v>
       </c>
@@ -9018,7 +9027,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>47331</v>
       </c>
@@ -9036,7 +9045,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>47362</v>
       </c>
@@ -9054,7 +9063,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>47392</v>
       </c>
@@ -9072,7 +9081,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>47423</v>
       </c>
@@ -9090,7 +9099,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>47453</v>
       </c>
@@ -9108,7 +9117,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>47484</v>
       </c>
@@ -9126,7 +9135,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -9142,7 +9151,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -9158,7 +9167,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -9174,7 +9183,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -9190,7 +9199,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -9206,7 +9215,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -9222,7 +9231,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -9238,7 +9247,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -9254,7 +9263,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -9270,7 +9279,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -9286,7 +9295,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -9302,7 +9311,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -9318,7 +9327,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -9334,7 +9343,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -9350,7 +9359,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -9366,7 +9375,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -9382,7 +9391,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -9398,7 +9407,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -9414,7 +9423,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -9430,7 +9439,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -9446,7 +9455,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -9462,7 +9471,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -9478,7 +9487,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -9494,7 +9503,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -9510,7 +9519,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -9526,7 +9535,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -9542,7 +9551,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -9558,7 +9567,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -9574,7 +9583,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -9590,7 +9599,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -9606,7 +9615,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -9622,7 +9631,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -9638,7 +9647,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -9654,7 +9663,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -9670,7 +9679,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -9686,7 +9695,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -9702,7 +9711,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -9718,7 +9727,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -9734,7 +9743,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -9750,7 +9759,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -9766,7 +9775,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -9782,7 +9791,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -9798,7 +9807,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -9814,7 +9823,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -9830,7 +9839,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -9846,7 +9855,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -9862,7 +9871,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -9878,7 +9887,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -9894,7 +9903,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -9910,7 +9919,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -9926,7 +9935,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -9942,7 +9951,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -9958,7 +9967,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -9974,7 +9983,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -9990,7 +9999,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -10006,7 +10015,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -10022,7 +10031,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -10038,7 +10047,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -10054,7 +10063,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -10070,7 +10079,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -10086,7 +10095,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -10102,7 +10111,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -10118,7 +10127,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -10134,7 +10143,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -10150,7 +10159,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -10166,7 +10175,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -10182,7 +10191,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -10198,7 +10207,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -10214,7 +10223,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -10230,7 +10239,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -10246,7 +10255,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -10262,7 +10271,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -10278,7 +10287,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -10294,7 +10303,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -10310,7 +10319,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -10326,7 +10335,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -10342,7 +10351,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -10358,7 +10367,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -10374,7 +10383,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -10390,7 +10399,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -10406,7 +10415,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -10422,7 +10431,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -10438,7 +10447,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -10454,7 +10463,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -10470,7 +10479,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -10486,7 +10495,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -10502,7 +10511,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -10518,7 +10527,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -10534,7 +10543,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -10550,7 +10559,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -10566,7 +10575,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -10582,7 +10591,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -10598,7 +10607,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -10614,7 +10623,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -10630,7 +10639,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -10646,7 +10655,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -10662,7 +10671,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -10678,7 +10687,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -10694,7 +10703,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -10710,7 +10719,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -10726,7 +10735,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -10742,7 +10751,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -10758,7 +10767,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -10774,7 +10783,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -10790,7 +10799,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -10806,7 +10815,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -10822,7 +10831,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -10838,7 +10847,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -10854,7 +10863,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -10870,7 +10879,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -10886,7 +10895,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -10902,7 +10911,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -10918,7 +10927,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -10934,7 +10943,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -10950,7 +10959,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -10966,7 +10975,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -10982,7 +10991,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -10998,7 +11007,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -11014,7 +11023,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -11030,7 +11039,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -11046,7 +11055,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -11062,7 +11071,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -11078,7 +11087,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -11094,7 +11103,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -11110,7 +11119,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -11126,7 +11135,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -11142,7 +11151,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -11158,7 +11167,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -11174,7 +11183,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -11190,7 +11199,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -11206,7 +11215,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -11222,7 +11231,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -11238,7 +11247,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -11254,7 +11263,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -11270,7 +11279,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -11286,7 +11295,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -11302,7 +11311,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -11318,7 +11327,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -11334,7 +11343,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -11350,7 +11359,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -11366,7 +11375,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -11382,7 +11391,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -11398,7 +11407,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -11414,7 +11423,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -11430,7 +11439,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -11446,7 +11455,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -11462,7 +11471,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -11478,7 +11487,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -11494,7 +11503,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -11510,7 +11519,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -11526,7 +11535,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -11542,7 +11551,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -11558,7 +11567,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -11574,7 +11583,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -11590,7 +11599,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -11606,7 +11615,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -11622,7 +11631,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -11638,7 +11647,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -11654,7 +11663,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -11670,7 +11679,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -11686,7 +11695,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -11702,7 +11711,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -11718,7 +11727,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -11734,7 +11743,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -11750,7 +11759,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -11766,7 +11775,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -11782,7 +11791,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -11798,7 +11807,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -11814,7 +11823,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -11830,7 +11839,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -11846,7 +11855,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -11862,7 +11871,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -11878,7 +11887,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -11894,7 +11903,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -11910,7 +11919,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -11926,7 +11935,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -11942,7 +11951,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -11958,7 +11967,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -11974,7 +11983,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -11990,7 +11999,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -12006,7 +12015,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -12022,7 +12031,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -12038,7 +12047,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -12054,7 +12063,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -12070,7 +12079,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -12086,7 +12095,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -12102,7 +12111,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -12118,7 +12127,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -12134,7 +12143,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -12150,7 +12159,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -12166,7 +12175,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -12182,7 +12191,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -12198,7 +12207,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -12214,7 +12223,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -12230,7 +12239,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -12246,7 +12255,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -12262,7 +12271,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -12278,7 +12287,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -12294,7 +12303,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -12310,7 +12319,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -12326,7 +12335,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -12342,7 +12351,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -12358,7 +12367,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -12374,7 +12383,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -12390,7 +12399,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -12406,7 +12415,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -12422,7 +12431,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -12438,7 +12447,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -12454,7 +12463,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -12470,7 +12479,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -12486,7 +12495,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -12502,7 +12511,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -12518,7 +12527,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -12534,7 +12543,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -12550,7 +12559,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -12566,7 +12575,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -12582,7 +12591,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -12598,7 +12607,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -12614,7 +12623,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -12630,7 +12639,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -12646,7 +12655,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -12662,7 +12671,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -12678,7 +12687,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -12694,7 +12703,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -12710,7 +12719,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -12726,7 +12735,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -12742,7 +12751,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -12758,7 +12767,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -12774,7 +12783,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -12790,7 +12799,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -12806,7 +12815,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -12822,7 +12831,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -12838,7 +12847,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -12854,7 +12863,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -12870,7 +12879,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -12886,7 +12895,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -12902,7 +12911,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -12918,7 +12927,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -12934,7 +12943,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -12950,7 +12959,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -12966,7 +12975,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -12982,7 +12991,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -12998,7 +13007,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -13014,7 +13023,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -13030,7 +13039,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -13046,7 +13055,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -13062,7 +13071,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -13078,7 +13087,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -13094,7 +13103,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -13110,7 +13119,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -13126,7 +13135,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -13142,7 +13151,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -13158,7 +13167,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -13174,7 +13183,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -13190,7 +13199,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -13206,7 +13215,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -13222,7 +13231,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -13238,7 +13247,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -13254,7 +13263,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -13270,7 +13279,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -13286,7 +13295,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -13302,7 +13311,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -13318,7 +13327,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -13334,7 +13343,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -13350,7 +13359,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -13366,7 +13375,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -13382,7 +13391,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -13398,7 +13407,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -13414,7 +13423,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -13430,7 +13439,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -13446,7 +13455,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -13462,7 +13471,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -13478,7 +13487,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -13494,7 +13503,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -13510,7 +13519,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -13526,7 +13535,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -13542,7 +13551,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -13558,7 +13567,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -13574,7 +13583,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -13590,7 +13599,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -13606,7 +13615,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -13622,7 +13631,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -13638,7 +13647,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -13654,7 +13663,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -13670,7 +13679,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -13686,7 +13695,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -13702,7 +13711,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -13718,7 +13727,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -13734,7 +13743,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -13750,7 +13759,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -13766,7 +13775,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -13782,7 +13791,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -13798,7 +13807,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -13814,7 +13823,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -13830,7 +13839,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -13846,7 +13855,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -13862,7 +13871,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -13878,7 +13887,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -13894,7 +13903,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -13910,7 +13919,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -13926,7 +13935,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -13942,7 +13951,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -13958,7 +13967,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -13974,7 +13983,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -13990,7 +13999,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -14006,7 +14015,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -14022,7 +14031,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -14038,7 +14047,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -14054,7 +14063,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -14070,7 +14079,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -14086,7 +14095,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -14102,7 +14111,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -14118,7 +14127,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -14134,7 +14143,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -14150,7 +14159,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -14166,7 +14175,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -14182,7 +14191,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -14198,7 +14207,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -14214,7 +14223,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -14230,7 +14239,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -14246,7 +14255,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -14262,7 +14271,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -14278,7 +14287,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -14294,7 +14303,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -14310,7 +14319,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -14326,7 +14335,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -14342,7 +14351,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -14358,7 +14367,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -14374,7 +14383,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -14390,7 +14399,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -14406,7 +14415,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -14422,7 +14431,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -14438,7 +14447,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -14454,7 +14463,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -14470,7 +14479,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -14486,7 +14495,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -14502,7 +14511,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -14518,7 +14527,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -14534,7 +14543,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -14550,7 +14559,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -14566,7 +14575,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -14582,7 +14591,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -14598,7 +14607,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -14614,7 +14623,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -14630,7 +14639,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -14646,7 +14655,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -14662,7 +14671,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -14678,7 +14687,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -14694,7 +14703,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -14710,7 +14719,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -14726,7 +14735,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -14742,7 +14751,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -14758,7 +14767,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -14774,7 +14783,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -14790,7 +14799,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -14806,7 +14815,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -14822,7 +14831,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -14838,7 +14847,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -14854,7 +14863,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -14870,7 +14879,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -14886,7 +14895,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -14902,7 +14911,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -14918,7 +14927,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -14934,7 +14943,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40"/>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -14950,7 +14959,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40"/>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -14966,7 +14975,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40"/>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -14982,7 +14991,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40"/>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -14998,7 +15007,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40"/>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -15014,7 +15023,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40"/>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -15030,7 +15039,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40"/>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -15046,7 +15055,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40"/>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -15062,7 +15071,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="41"/>
       <c r="B750" s="15"/>
       <c r="C750" s="42"/>
@@ -15093,10 +15102,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15119,28 +15128,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -15153,7 +15162,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15182,7 +15191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.042</v>
       </c>
@@ -15206,17 +15215,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15237,7 +15246,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15264,7 +15273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15290,7 +15299,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15316,7 +15325,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15342,7 +15351,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15368,7 +15377,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15394,7 +15403,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15420,7 +15429,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15446,7 +15455,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15466,7 +15475,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15486,7 +15495,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15506,7 +15515,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15527,7 +15536,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15548,7 +15557,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15569,7 +15578,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15590,7 +15599,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15611,7 +15620,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15632,7 +15641,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15653,7 +15662,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15674,7 +15683,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15695,7 +15704,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15716,7 +15725,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15737,7 +15746,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15758,7 +15767,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15779,7 +15788,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15800,7 +15809,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15821,7 +15830,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15842,7 +15851,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15863,7 +15872,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15884,7 +15893,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15905,7 +15914,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15926,7 +15935,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15935,7 +15944,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15944,7 +15953,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15953,7 +15962,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15962,7 +15971,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15971,7 +15980,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15980,7 +15989,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15989,7 +15998,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15998,7 +16007,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16007,7 +16016,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16016,7 +16025,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16025,7 +16034,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16034,7 +16043,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16043,7 +16052,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16052,7 +16061,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16061,7 +16070,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16070,7 +16079,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16079,7 +16088,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16088,7 +16097,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16097,7 +16106,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16106,7 +16115,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16115,7 +16124,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16124,7 +16133,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16133,7 +16142,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16142,7 +16151,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16151,7 +16160,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16160,7 +16169,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16169,7 +16178,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16178,7 +16187,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16187,7 +16196,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/JAVIER, OLIVER.xlsx
+++ b/REGULAR/JAVIER, OLIVER.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="131">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1452,9 +1452,9 @@
   <dimension ref="A2:K750"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A286"/>
+      <pane ySplit="3570" topLeftCell="A286" activePane="bottomLeft"/>
       <selection activeCell="H8" sqref="H8"/>
-      <selection pane="bottomLeft" activeCell="K300" sqref="K300"/>
+      <selection pane="bottomLeft" activeCell="J300" sqref="J300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1613,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>138.792</v>
+        <v>140.042</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1623,7 +1623,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>191.792</v>
+        <v>193.042</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7696,13 +7696,15 @@
       <c r="B299" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C299" s="13"/>
+      <c r="C299" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D299" s="39"/>
       <c r="E299" s="9"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G299" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H299" s="39">
         <v>1</v>
@@ -7717,7 +7719,9 @@
       <c r="A300" s="40">
         <v>45108</v>
       </c>
-      <c r="B300" s="20"/>
+      <c r="B300" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C300" s="13"/>
       <c r="D300" s="39"/>
       <c r="E300" s="9"/>
@@ -7729,7 +7733,9 @@
       <c r="H300" s="39"/>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
-      <c r="K300" s="20"/>
+      <c r="K300" s="49">
+        <v>45121</v>
+      </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
